--- a/publipostage/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
+++ b/publipostage/01502ca60/liste_essais_cliniques_identifies_01502ca60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J492"/>
+  <dimension ref="A1:K492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +746,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +789,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -796,6 +836,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +883,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -918,6 +973,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -956,6 +1016,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1059,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1032,6 +1102,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1149,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1112,6 +1192,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1150,6 +1235,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1192,6 +1282,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1230,6 +1325,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1268,6 +1368,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1310,6 +1415,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1348,6 +1458,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1386,6 +1501,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1424,6 +1544,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1466,6 +1591,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1508,6 +1638,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1546,6 +1681,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1588,6 +1728,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1630,6 +1775,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1672,6 +1822,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1710,6 +1865,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1752,6 +1912,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1794,6 +1959,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1836,6 +2006,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1878,6 +2053,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1920,6 +2100,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1962,6 +2147,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2004,6 +2194,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2046,6 +2241,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2088,6 +2288,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2130,6 +2335,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2172,6 +2382,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2214,6 +2429,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2256,6 +2476,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2298,6 +2523,11 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2336,6 +2566,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2374,6 +2609,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2416,6 +2656,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2458,6 +2703,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2500,6 +2750,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2542,6 +2797,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2580,6 +2840,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2622,6 +2887,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2664,6 +2934,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2702,6 +2977,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2740,6 +3020,11 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2777,6 +3062,11 @@
       </c>
       <c r="J58" t="b">
         <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2812,6 +3102,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2854,6 +3149,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2892,6 +3192,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2934,6 +3239,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2976,6 +3286,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3018,6 +3333,7 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3060,6 +3376,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3102,6 +3423,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3144,6 +3470,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3186,6 +3517,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3228,6 +3564,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3270,6 +3611,11 @@
       <c r="J70" t="b">
         <v>1</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3312,6 +3658,11 @@
       <c r="J71" t="b">
         <v>1</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3354,6 +3705,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3396,6 +3752,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3438,6 +3799,11 @@
       <c r="J74" t="b">
         <v>1</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3480,6 +3846,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3522,6 +3893,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3564,6 +3940,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3606,6 +3987,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3648,6 +4034,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3686,6 +4077,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3724,6 +4120,11 @@
       <c r="J81" t="b">
         <v>1</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3766,6 +4167,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3808,6 +4214,11 @@
       <c r="J83" t="b">
         <v>1</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3850,6 +4261,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3892,6 +4308,11 @@
       <c r="J85" t="b">
         <v>1</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3934,6 +4355,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3972,6 +4398,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4010,6 +4441,11 @@
       <c r="J88" t="b">
         <v>1</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4048,6 +4484,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4090,6 +4531,11 @@
       <c r="J90" t="b">
         <v>1</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4128,6 +4574,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4170,6 +4621,11 @@
       <c r="J92" t="b">
         <v>1</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4208,6 +4664,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4250,6 +4711,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4292,6 +4758,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4334,6 +4805,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4372,6 +4848,7 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4414,6 +4891,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4452,6 +4934,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4490,6 +4977,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4532,6 +5024,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4574,6 +5071,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4616,6 +5118,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4658,6 +5165,7 @@
       <c r="J104" t="b">
         <v>1</v>
       </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4700,6 +5208,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4738,6 +5251,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4780,6 +5298,11 @@
       <c r="J107" t="b">
         <v>1</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4822,6 +5345,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4864,6 +5392,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4906,6 +5439,11 @@
       <c r="J110" t="b">
         <v>1</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4948,6 +5486,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4986,6 +5529,11 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5024,6 +5572,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5066,6 +5619,11 @@
       <c r="J114" t="b">
         <v>1</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5104,6 +5662,11 @@
       <c r="J115" t="b">
         <v>1</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5146,6 +5709,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5192,6 +5760,11 @@
       <c r="J117" t="b">
         <v>1</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5234,6 +5807,11 @@
       <c r="J118" t="b">
         <v>1</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5276,6 +5854,11 @@
       <c r="J119" t="b">
         <v>1</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5318,6 +5901,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5360,6 +5948,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5398,6 +5991,11 @@
       <c r="J122" t="b">
         <v>1</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5436,6 +6034,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5478,6 +6081,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5516,6 +6124,11 @@
       <c r="J125" t="b">
         <v>1</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5558,6 +6171,11 @@
       <c r="J126" t="b">
         <v>1</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5600,6 +6218,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5642,6 +6265,11 @@
       <c r="J128" t="b">
         <v>1</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5684,6 +6312,11 @@
       <c r="J129" t="b">
         <v>1</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5726,6 +6359,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5770,6 +6408,7 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5812,6 +6451,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5854,6 +6498,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5896,6 +6545,7 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5938,6 +6588,11 @@
       <c r="J135" t="b">
         <v>0</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5980,6 +6635,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6022,6 +6682,11 @@
       <c r="J137" t="b">
         <v>1</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6064,6 +6729,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6102,6 +6772,11 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6144,6 +6819,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6186,6 +6866,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6224,6 +6909,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6266,6 +6956,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6304,6 +6999,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6346,6 +7046,11 @@
       <c r="J145" t="b">
         <v>0</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6388,6 +7093,11 @@
       <c r="J146" t="b">
         <v>0</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6430,6 +7140,11 @@
       <c r="J147" t="b">
         <v>0</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6472,6 +7187,11 @@
       <c r="J148" t="b">
         <v>0</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6510,6 +7230,11 @@
       <c r="J149" t="b">
         <v>0</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6552,6 +7277,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6590,6 +7320,11 @@
       <c r="J151" t="b">
         <v>0</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6632,6 +7367,11 @@
       <c r="J152" t="b">
         <v>1</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6674,6 +7414,11 @@
       <c r="J153" t="b">
         <v>1</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6716,6 +7461,11 @@
       <c r="J154" t="b">
         <v>0</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6758,6 +7508,11 @@
       <c r="J155" t="b">
         <v>1</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6796,6 +7551,11 @@
       <c r="J156" t="b">
         <v>0</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6838,6 +7598,11 @@
       <c r="J157" t="b">
         <v>1</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6876,6 +7641,11 @@
       <c r="J158" t="b">
         <v>0</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6918,6 +7688,11 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6960,6 +7735,11 @@
       <c r="J160" t="b">
         <v>1</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7002,6 +7782,11 @@
       <c r="J161" t="b">
         <v>1</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7044,6 +7829,11 @@
       <c r="J162" t="b">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7082,6 +7872,11 @@
       <c r="J163" t="b">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7124,6 +7919,11 @@
       <c r="J164" t="b">
         <v>0</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7166,6 +7966,11 @@
       <c r="J165" t="b">
         <v>1</v>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7208,6 +8013,11 @@
       <c r="J166" t="b">
         <v>1</v>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7250,6 +8060,11 @@
       <c r="J167" t="b">
         <v>0</v>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7288,6 +8103,11 @@
       <c r="J168" t="b">
         <v>0</v>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7330,6 +8150,11 @@
       <c r="J169" t="b">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7372,6 +8197,11 @@
       <c r="J170" t="b">
         <v>0</v>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7410,6 +8240,11 @@
       <c r="J171" t="b">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7452,6 +8287,11 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7494,6 +8334,11 @@
       <c r="J173" t="b">
         <v>0</v>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7536,6 +8381,11 @@
       <c r="J174" t="b">
         <v>0</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7578,6 +8428,11 @@
       <c r="J175" t="b">
         <v>0</v>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7624,6 +8479,11 @@
       <c r="J176" t="b">
         <v>1</v>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7668,6 +8528,7 @@
       <c r="J177" t="b">
         <v>1</v>
       </c>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7710,6 +8571,11 @@
       <c r="J178" t="b">
         <v>0</v>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7748,6 +8614,11 @@
       <c r="J179" t="b">
         <v>0</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7790,6 +8661,11 @@
       <c r="J180" t="b">
         <v>0</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7832,6 +8708,11 @@
       <c r="J181" t="b">
         <v>0</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7874,6 +8755,11 @@
       <c r="J182" t="b">
         <v>0</v>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7916,6 +8802,11 @@
       <c r="J183" t="b">
         <v>1</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7958,6 +8849,11 @@
       <c r="J184" t="b">
         <v>1</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8000,6 +8896,11 @@
       <c r="J185" t="b">
         <v>0</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8042,6 +8943,11 @@
       <c r="J186" t="b">
         <v>0</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8084,6 +8990,11 @@
       <c r="J187" t="b">
         <v>1</v>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8125,6 +9036,11 @@
       </c>
       <c r="J188" t="b">
         <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -8168,6 +9084,7 @@
       <c r="J189" t="b">
         <v>0</v>
       </c>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8210,6 +9127,11 @@
       <c r="J190" t="b">
         <v>1</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8248,6 +9170,7 @@
       <c r="J191" t="b">
         <v>0</v>
       </c>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8290,6 +9213,11 @@
       <c r="J192" t="b">
         <v>0</v>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8332,6 +9260,11 @@
       <c r="J193" t="b">
         <v>0</v>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8374,6 +9307,11 @@
       <c r="J194" t="b">
         <v>0</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8416,6 +9354,11 @@
       <c r="J195" t="b">
         <v>0</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8458,6 +9401,11 @@
       <c r="J196" t="b">
         <v>0</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8502,6 +9450,7 @@
       <c r="J197" t="b">
         <v>0</v>
       </c>
+      <c r="K197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8544,6 +9493,11 @@
       <c r="J198" t="b">
         <v>0</v>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8586,6 +9540,11 @@
       <c r="J199" t="b">
         <v>0</v>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8628,6 +9587,11 @@
       <c r="J200" t="b">
         <v>0</v>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8666,6 +9630,11 @@
       <c r="J201" t="b">
         <v>0</v>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8708,6 +9677,11 @@
       <c r="J202" t="b">
         <v>0</v>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8750,6 +9724,11 @@
       <c r="J203" t="b">
         <v>0</v>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8792,6 +9771,11 @@
       <c r="J204" t="b">
         <v>1</v>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8830,6 +9814,11 @@
       <c r="J205" t="b">
         <v>0</v>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8872,6 +9861,11 @@
       <c r="J206" t="b">
         <v>0</v>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8914,6 +9908,11 @@
       <c r="J207" t="b">
         <v>0</v>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8956,6 +9955,11 @@
       <c r="J208" t="b">
         <v>0</v>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8999,6 +10003,7 @@
       <c r="J209" t="b">
         <v>0</v>
       </c>
+      <c r="K209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9037,6 +10042,11 @@
       <c r="J210" t="b">
         <v>0</v>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9079,6 +10089,11 @@
       <c r="J211" t="b">
         <v>1</v>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9121,6 +10136,11 @@
       <c r="J212" t="b">
         <v>0</v>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9163,6 +10183,11 @@
       <c r="J213" t="b">
         <v>0</v>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9205,6 +10230,11 @@
       <c r="J214" t="b">
         <v>0</v>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9247,6 +10277,11 @@
       <c r="J215" t="b">
         <v>0</v>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9289,6 +10324,11 @@
       <c r="J216" t="b">
         <v>0</v>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9333,6 +10373,7 @@
       <c r="J217" t="b">
         <v>0</v>
       </c>
+      <c r="K217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9371,6 +10412,11 @@
       <c r="J218" t="b">
         <v>0</v>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9413,6 +10459,11 @@
       <c r="J219" t="b">
         <v>0</v>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9455,6 +10506,11 @@
       <c r="J220" t="b">
         <v>0</v>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9497,6 +10553,11 @@
       <c r="J221" t="b">
         <v>1</v>
       </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9539,6 +10600,11 @@
       <c r="J222" t="b">
         <v>0</v>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9581,6 +10647,11 @@
       <c r="J223" t="b">
         <v>0</v>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9619,6 +10690,11 @@
       <c r="J224" t="b">
         <v>0</v>
       </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9661,6 +10737,11 @@
       <c r="J225" t="b">
         <v>0</v>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9703,6 +10784,11 @@
       <c r="J226" t="b">
         <v>1</v>
       </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9745,6 +10831,11 @@
       <c r="J227" t="b">
         <v>0</v>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9783,6 +10874,11 @@
       <c r="J228" t="b">
         <v>0</v>
       </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9825,6 +10921,11 @@
       <c r="J229" t="b">
         <v>0</v>
       </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9867,6 +10968,11 @@
       <c r="J230" t="b">
         <v>0</v>
       </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9909,6 +11015,11 @@
       <c r="J231" t="b">
         <v>0</v>
       </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9951,6 +11062,11 @@
       <c r="J232" t="b">
         <v>0</v>
       </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9994,6 +11110,7 @@
       <c r="J233" t="b">
         <v>0</v>
       </c>
+      <c r="K233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10032,6 +11149,11 @@
       <c r="J234" t="b">
         <v>0</v>
       </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10074,6 +11196,11 @@
       <c r="J235" t="b">
         <v>0</v>
       </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10116,6 +11243,11 @@
       <c r="J236" t="b">
         <v>0</v>
       </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10158,6 +11290,11 @@
       <c r="J237" t="b">
         <v>0</v>
       </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10200,6 +11337,11 @@
       <c r="J238" t="b">
         <v>0</v>
       </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10238,6 +11380,11 @@
       <c r="J239" t="b">
         <v>0</v>
       </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10276,6 +11423,11 @@
       <c r="J240" t="b">
         <v>0</v>
       </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10318,6 +11470,11 @@
       <c r="J241" t="b">
         <v>0</v>
       </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10356,6 +11513,11 @@
       <c r="J242" t="b">
         <v>0</v>
       </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10398,6 +11560,11 @@
       <c r="J243" t="b">
         <v>0</v>
       </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10440,6 +11607,11 @@
       <c r="J244" t="b">
         <v>1</v>
       </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10478,6 +11650,11 @@
       <c r="J245" t="b">
         <v>0</v>
       </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10520,6 +11697,11 @@
       <c r="J246" t="b">
         <v>1</v>
       </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10562,6 +11744,11 @@
       <c r="J247" t="b">
         <v>0</v>
       </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10604,6 +11791,11 @@
       <c r="J248" t="b">
         <v>1</v>
       </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10646,6 +11838,11 @@
       <c r="J249" t="b">
         <v>0</v>
       </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10688,6 +11885,11 @@
       <c r="J250" t="b">
         <v>1</v>
       </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10730,6 +11932,11 @@
       <c r="J251" t="b">
         <v>0</v>
       </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10772,6 +11979,11 @@
       <c r="J252" t="b">
         <v>1</v>
       </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10814,6 +12026,11 @@
       <c r="J253" t="b">
         <v>0</v>
       </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10856,6 +12073,11 @@
       <c r="J254" t="b">
         <v>0</v>
       </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10898,6 +12120,11 @@
       <c r="J255" t="b">
         <v>0</v>
       </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10940,6 +12167,11 @@
       <c r="J256" t="b">
         <v>1</v>
       </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10982,6 +12214,11 @@
       <c r="J257" t="b">
         <v>0</v>
       </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11024,6 +12261,11 @@
       <c r="J258" t="b">
         <v>1</v>
       </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11066,6 +12308,11 @@
       <c r="J259" t="b">
         <v>1</v>
       </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11108,6 +12355,11 @@
       <c r="J260" t="b">
         <v>0</v>
       </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11150,6 +12402,7 @@
       <c r="J261" t="b">
         <v>0</v>
       </c>
+      <c r="K261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11192,6 +12445,11 @@
       <c r="J262" t="b">
         <v>0</v>
       </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11234,6 +12492,11 @@
       <c r="J263" t="b">
         <v>0</v>
       </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11276,6 +12539,11 @@
       <c r="J264" t="b">
         <v>1</v>
       </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11322,6 +12590,11 @@
       <c r="J265" t="b">
         <v>1</v>
       </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11364,6 +12637,11 @@
       <c r="J266" t="b">
         <v>0</v>
       </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11406,6 +12684,11 @@
       <c r="J267" t="b">
         <v>0</v>
       </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11448,6 +12731,11 @@
       <c r="J268" t="b">
         <v>0</v>
       </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11490,6 +12778,11 @@
       <c r="J269" t="b">
         <v>0</v>
       </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11532,6 +12825,11 @@
       <c r="J270" t="b">
         <v>0</v>
       </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11574,6 +12872,11 @@
       <c r="J271" t="b">
         <v>0</v>
       </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11612,6 +12915,11 @@
       <c r="J272" t="b">
         <v>0</v>
       </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11654,6 +12962,11 @@
       <c r="J273" t="b">
         <v>0</v>
       </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11696,6 +13009,11 @@
       <c r="J274" t="b">
         <v>0</v>
       </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11738,6 +13056,11 @@
       <c r="J275" t="b">
         <v>0</v>
       </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11780,6 +13103,11 @@
       <c r="J276" t="b">
         <v>0</v>
       </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11822,6 +13150,11 @@
       <c r="J277" t="b">
         <v>0</v>
       </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11864,6 +13197,11 @@
       <c r="J278" t="b">
         <v>0</v>
       </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11906,6 +13244,11 @@
       <c r="J279" t="b">
         <v>0</v>
       </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11948,6 +13291,11 @@
       <c r="J280" t="b">
         <v>0</v>
       </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11990,6 +13338,11 @@
       <c r="J281" t="b">
         <v>0</v>
       </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12032,6 +13385,11 @@
       <c r="J282" t="b">
         <v>0</v>
       </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12074,6 +13432,11 @@
       <c r="J283" t="b">
         <v>1</v>
       </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12116,6 +13479,11 @@
       <c r="J284" t="b">
         <v>1</v>
       </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12158,6 +13526,11 @@
       <c r="J285" t="b">
         <v>0</v>
       </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12200,6 +13573,11 @@
       <c r="J286" t="b">
         <v>1</v>
       </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12242,6 +13620,11 @@
       <c r="J287" t="b">
         <v>0</v>
       </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12284,6 +13667,11 @@
       <c r="J288" t="b">
         <v>0</v>
       </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12326,6 +13714,11 @@
       <c r="J289" t="b">
         <v>0</v>
       </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12368,6 +13761,11 @@
       <c r="J290" t="b">
         <v>0</v>
       </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12410,6 +13808,11 @@
       <c r="J291" t="b">
         <v>0</v>
       </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12452,6 +13855,11 @@
       <c r="J292" t="b">
         <v>0</v>
       </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12494,6 +13902,11 @@
       <c r="J293" t="b">
         <v>1</v>
       </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12536,6 +13949,11 @@
       <c r="J294" t="b">
         <v>1</v>
       </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12578,6 +13996,11 @@
       <c r="J295" t="b">
         <v>0</v>
       </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12616,6 +14039,11 @@
       <c r="J296" t="b">
         <v>0</v>
       </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12658,6 +14086,11 @@
       <c r="J297" t="b">
         <v>0</v>
       </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12700,6 +14133,11 @@
       <c r="J298" t="b">
         <v>0</v>
       </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12742,6 +14180,11 @@
       <c r="J299" t="b">
         <v>0</v>
       </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12784,6 +14227,11 @@
       <c r="J300" t="b">
         <v>0</v>
       </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12827,6 +14275,7 @@
       <c r="J301" t="b">
         <v>0</v>
       </c>
+      <c r="K301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12869,6 +14318,11 @@
       <c r="J302" t="b">
         <v>1</v>
       </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12911,6 +14365,11 @@
       <c r="J303" t="b">
         <v>0</v>
       </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12955,6 +14414,7 @@
       <c r="J304" t="b">
         <v>0</v>
       </c>
+      <c r="K304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12999,6 +14459,7 @@
       <c r="J305" t="b">
         <v>0</v>
       </c>
+      <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13037,6 +14498,11 @@
       <c r="J306" t="b">
         <v>0</v>
       </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13075,6 +14541,11 @@
       <c r="J307" t="b">
         <v>0</v>
       </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13117,6 +14588,11 @@
       <c r="J308" t="b">
         <v>0</v>
       </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13159,6 +14635,11 @@
       <c r="J309" t="b">
         <v>1</v>
       </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13201,6 +14682,11 @@
       <c r="J310" t="b">
         <v>0</v>
       </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13243,6 +14729,11 @@
       <c r="J311" t="b">
         <v>1</v>
       </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13285,6 +14776,11 @@
       <c r="J312" t="b">
         <v>0</v>
       </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13327,6 +14823,11 @@
       <c r="J313" t="b">
         <v>0</v>
       </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13369,6 +14870,11 @@
       <c r="J314" t="b">
         <v>0</v>
       </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13411,6 +14917,11 @@
       <c r="J315" t="b">
         <v>1</v>
       </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13453,6 +14964,11 @@
       <c r="J316" t="b">
         <v>0</v>
       </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13495,6 +15011,11 @@
       <c r="J317" t="b">
         <v>1</v>
       </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13537,6 +15058,11 @@
       <c r="J318" t="b">
         <v>0</v>
       </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13575,6 +15101,11 @@
       <c r="J319" t="b">
         <v>0</v>
       </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13617,6 +15148,11 @@
       <c r="J320" t="b">
         <v>0</v>
       </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13659,6 +15195,11 @@
       <c r="J321" t="b">
         <v>0</v>
       </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13701,6 +15242,11 @@
       <c r="J322" t="b">
         <v>1</v>
       </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13743,6 +15289,11 @@
       <c r="J323" t="b">
         <v>0</v>
       </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13781,6 +15332,11 @@
       <c r="J324" t="b">
         <v>0</v>
       </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13823,6 +15379,11 @@
       <c r="J325" t="b">
         <v>0</v>
       </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13865,6 +15426,11 @@
       <c r="J326" t="b">
         <v>0</v>
       </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13907,6 +15473,11 @@
       <c r="J327" t="b">
         <v>0</v>
       </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13949,6 +15520,11 @@
       <c r="J328" t="b">
         <v>0</v>
       </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13991,6 +15567,11 @@
       <c r="J329" t="b">
         <v>0</v>
       </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14033,6 +15614,11 @@
       <c r="J330" t="b">
         <v>0</v>
       </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14071,6 +15657,11 @@
       <c r="J331" t="b">
         <v>1</v>
       </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14113,6 +15704,11 @@
       <c r="J332" t="b">
         <v>0</v>
       </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14157,6 +15753,7 @@
       <c r="J333" t="b">
         <v>1</v>
       </c>
+      <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14199,6 +15796,11 @@
       <c r="J334" t="b">
         <v>0</v>
       </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14237,6 +15839,11 @@
       <c r="J335" t="b">
         <v>0</v>
       </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14279,6 +15886,11 @@
       <c r="J336" t="b">
         <v>0</v>
       </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14321,6 +15933,11 @@
       <c r="J337" t="b">
         <v>1</v>
       </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14365,6 +15982,7 @@
       <c r="J338" t="b">
         <v>0</v>
       </c>
+      <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14407,6 +16025,11 @@
       <c r="J339" t="b">
         <v>0</v>
       </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14449,6 +16072,11 @@
       <c r="J340" t="b">
         <v>0</v>
       </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14491,6 +16119,11 @@
       <c r="J341" t="b">
         <v>0</v>
       </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14533,6 +16166,11 @@
       <c r="J342" t="b">
         <v>0</v>
       </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14575,6 +16213,11 @@
       <c r="J343" t="b">
         <v>0</v>
       </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14617,6 +16260,11 @@
       <c r="J344" t="b">
         <v>0</v>
       </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14659,6 +16307,11 @@
       <c r="J345" t="b">
         <v>0</v>
       </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14701,6 +16354,11 @@
       <c r="J346" t="b">
         <v>0</v>
       </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14743,6 +16401,11 @@
       <c r="J347" t="b">
         <v>0</v>
       </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14785,6 +16448,11 @@
       <c r="J348" t="b">
         <v>0</v>
       </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14827,6 +16495,11 @@
       <c r="J349" t="b">
         <v>0</v>
       </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14869,6 +16542,11 @@
       <c r="J350" t="b">
         <v>0</v>
       </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14911,6 +16589,7 @@
       <c r="J351" t="b">
         <v>0</v>
       </c>
+      <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14949,6 +16628,11 @@
       <c r="J352" t="b">
         <v>0</v>
       </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14991,6 +16675,11 @@
       <c r="J353" t="b">
         <v>0</v>
       </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15029,6 +16718,11 @@
       <c r="J354" t="b">
         <v>0</v>
       </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15071,6 +16765,11 @@
       <c r="J355" t="b">
         <v>0</v>
       </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15113,6 +16812,11 @@
       <c r="J356" t="b">
         <v>1</v>
       </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15155,6 +16859,11 @@
       <c r="J357" t="b">
         <v>0</v>
       </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15197,6 +16906,11 @@
       <c r="J358" t="b">
         <v>1</v>
       </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15239,6 +16953,11 @@
       <c r="J359" t="b">
         <v>0</v>
       </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15281,6 +17000,11 @@
       <c r="J360" t="b">
         <v>0</v>
       </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15323,6 +17047,11 @@
       <c r="J361" t="b">
         <v>0</v>
       </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15365,6 +17094,11 @@
       <c r="J362" t="b">
         <v>0</v>
       </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15407,6 +17141,11 @@
       <c r="J363" t="b">
         <v>0</v>
       </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15449,6 +17188,11 @@
       <c r="J364" t="b">
         <v>0</v>
       </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15491,6 +17235,11 @@
       <c r="J365" t="b">
         <v>0</v>
       </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15533,6 +17282,11 @@
       <c r="J366" t="b">
         <v>0</v>
       </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15575,6 +17329,11 @@
       <c r="J367" t="b">
         <v>1</v>
       </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15617,6 +17376,7 @@
       <c r="J368" t="b">
         <v>0</v>
       </c>
+      <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15659,6 +17419,11 @@
       <c r="J369" t="b">
         <v>0</v>
       </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15701,6 +17466,11 @@
       <c r="J370" t="b">
         <v>0</v>
       </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15743,6 +17513,11 @@
       <c r="J371" t="b">
         <v>0</v>
       </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15785,6 +17560,11 @@
       <c r="J372" t="b">
         <v>0</v>
       </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -15823,6 +17603,11 @@
       <c r="J373" t="b">
         <v>0</v>
       </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15865,6 +17650,11 @@
       <c r="J374" t="b">
         <v>0</v>
       </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15907,6 +17697,11 @@
       <c r="J375" t="b">
         <v>0</v>
       </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15949,6 +17744,11 @@
       <c r="J376" t="b">
         <v>0</v>
       </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15991,6 +17791,11 @@
       <c r="J377" t="b">
         <v>0</v>
       </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -16033,6 +17838,11 @@
       <c r="J378" t="b">
         <v>1</v>
       </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16075,6 +17885,11 @@
       <c r="J379" t="b">
         <v>0</v>
       </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16117,6 +17932,11 @@
       <c r="J380" t="b">
         <v>0</v>
       </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16159,6 +17979,11 @@
       <c r="J381" t="b">
         <v>0</v>
       </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16201,6 +18026,11 @@
       <c r="J382" t="b">
         <v>0</v>
       </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16243,6 +18073,11 @@
       <c r="J383" t="b">
         <v>0</v>
       </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16285,6 +18120,11 @@
       <c r="J384" t="b">
         <v>0</v>
       </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16327,6 +18167,11 @@
       <c r="J385" t="b">
         <v>0</v>
       </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16369,6 +18214,11 @@
       <c r="J386" t="b">
         <v>0</v>
       </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16411,6 +18261,11 @@
       <c r="J387" t="b">
         <v>0</v>
       </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16453,6 +18308,11 @@
       <c r="J388" t="b">
         <v>1</v>
       </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16495,6 +18355,11 @@
       <c r="J389" t="b">
         <v>0</v>
       </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16533,6 +18398,11 @@
       <c r="J390" t="b">
         <v>0</v>
       </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16575,6 +18445,11 @@
       <c r="J391" t="b">
         <v>0</v>
       </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16617,6 +18492,11 @@
       <c r="J392" t="b">
         <v>0</v>
       </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16661,6 +18541,7 @@
       <c r="J393" t="b">
         <v>0</v>
       </c>
+      <c r="K393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16703,6 +18584,11 @@
       <c r="J394" t="b">
         <v>0</v>
       </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -16741,6 +18627,11 @@
       <c r="J395" t="b">
         <v>0</v>
       </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -16782,6 +18673,11 @@
       </c>
       <c r="J396" t="b">
         <v>0</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
       </c>
     </row>
     <row r="397">
@@ -16828,6 +18724,7 @@
       <c r="J397" t="b">
         <v>0</v>
       </c>
+      <c r="K397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -16872,6 +18769,7 @@
       <c r="J398" t="b">
         <v>0</v>
       </c>
+      <c r="K398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -16914,6 +18812,11 @@
       <c r="J399" t="b">
         <v>1</v>
       </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -16956,6 +18859,11 @@
       <c r="J400" t="b">
         <v>1</v>
       </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -16998,6 +18906,11 @@
       <c r="J401" t="b">
         <v>0</v>
       </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -17040,6 +18953,11 @@
       <c r="J402" t="b">
         <v>0</v>
       </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17082,6 +19000,11 @@
       <c r="J403" t="b">
         <v>0</v>
       </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17124,6 +19047,11 @@
       <c r="J404" t="b">
         <v>0</v>
       </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17166,6 +19094,11 @@
       <c r="J405" t="b">
         <v>1</v>
       </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17208,6 +19141,11 @@
       <c r="J406" t="b">
         <v>1</v>
       </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17250,6 +19188,11 @@
       <c r="J407" t="b">
         <v>0</v>
       </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17292,6 +19235,11 @@
       <c r="J408" t="b">
         <v>1</v>
       </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17334,6 +19282,11 @@
       <c r="J409" t="b">
         <v>0</v>
       </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17376,6 +19329,11 @@
       <c r="J410" t="b">
         <v>0</v>
       </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17418,6 +19376,11 @@
       <c r="J411" t="b">
         <v>0</v>
       </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17460,6 +19423,11 @@
       <c r="J412" t="b">
         <v>0</v>
       </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17502,6 +19470,11 @@
       <c r="J413" t="b">
         <v>0</v>
       </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17544,6 +19517,11 @@
       <c r="J414" t="b">
         <v>0</v>
       </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17586,6 +19564,11 @@
       <c r="J415" t="b">
         <v>0</v>
       </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17628,6 +19611,11 @@
       <c r="J416" t="b">
         <v>0</v>
       </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17670,6 +19658,11 @@
       <c r="J417" t="b">
         <v>0</v>
       </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -17712,6 +19705,11 @@
       <c r="J418" t="b">
         <v>0</v>
       </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -17754,6 +19752,11 @@
       <c r="J419" t="b">
         <v>0</v>
       </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -17796,6 +19799,11 @@
       <c r="J420" t="b">
         <v>1</v>
       </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -17838,6 +19846,11 @@
       <c r="J421" t="b">
         <v>0</v>
       </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -17880,6 +19893,11 @@
       <c r="J422" t="b">
         <v>1</v>
       </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -17922,6 +19940,11 @@
       <c r="J423" t="b">
         <v>0</v>
       </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -17964,6 +19987,11 @@
       <c r="J424" t="b">
         <v>0</v>
       </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -18006,6 +20034,11 @@
       <c r="J425" t="b">
         <v>0</v>
       </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18048,6 +20081,11 @@
       <c r="J426" t="b">
         <v>0</v>
       </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18090,6 +20128,11 @@
       <c r="J427" t="b">
         <v>1</v>
       </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18132,6 +20175,11 @@
       <c r="J428" t="b">
         <v>0</v>
       </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18174,6 +20222,11 @@
       <c r="J429" t="b">
         <v>0</v>
       </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18216,6 +20269,11 @@
       <c r="J430" t="b">
         <v>0</v>
       </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18258,6 +20316,11 @@
       <c r="J431" t="b">
         <v>0</v>
       </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18300,6 +20363,11 @@
       <c r="J432" t="b">
         <v>0</v>
       </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18342,6 +20410,11 @@
       <c r="J433" t="b">
         <v>0</v>
       </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18384,6 +20457,11 @@
       <c r="J434" t="b">
         <v>0</v>
       </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18426,6 +20504,11 @@
       <c r="J435" t="b">
         <v>0</v>
       </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18468,6 +20551,11 @@
       <c r="J436" t="b">
         <v>0</v>
       </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18510,6 +20598,11 @@
       <c r="J437" t="b">
         <v>0</v>
       </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18552,6 +20645,11 @@
       <c r="J438" t="b">
         <v>0</v>
       </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18594,6 +20692,11 @@
       <c r="J439" t="b">
         <v>0</v>
       </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18636,6 +20739,11 @@
       <c r="J440" t="b">
         <v>0</v>
       </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18682,6 +20790,11 @@
       <c r="J441" t="b">
         <v>1</v>
       </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18724,6 +20837,11 @@
       <c r="J442" t="b">
         <v>0</v>
       </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -18766,6 +20884,11 @@
       <c r="J443" t="b">
         <v>0</v>
       </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -18808,6 +20931,11 @@
       <c r="J444" t="b">
         <v>0</v>
       </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -18850,6 +20978,11 @@
       <c r="J445" t="b">
         <v>0</v>
       </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -18892,6 +21025,11 @@
       <c r="J446" t="b">
         <v>0</v>
       </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -18934,6 +21072,11 @@
       <c r="J447" t="b">
         <v>0</v>
       </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -18976,6 +21119,11 @@
       <c r="J448" t="b">
         <v>0</v>
       </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19020,6 +21168,7 @@
       <c r="J449" t="b">
         <v>0</v>
       </c>
+      <c r="K449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19064,6 +21213,7 @@
       <c r="J450" t="b">
         <v>0</v>
       </c>
+      <c r="K450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19106,6 +21256,11 @@
       <c r="J451" t="b">
         <v>0</v>
       </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19148,6 +21303,11 @@
       <c r="J452" t="b">
         <v>0</v>
       </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19190,6 +21350,11 @@
       <c r="J453" t="b">
         <v>0</v>
       </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19232,6 +21397,11 @@
       <c r="J454" t="b">
         <v>0</v>
       </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19274,6 +21444,11 @@
       <c r="J455" t="b">
         <v>0</v>
       </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19316,6 +21491,11 @@
       <c r="J456" t="b">
         <v>0</v>
       </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19358,6 +21538,11 @@
       <c r="J457" t="b">
         <v>0</v>
       </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19400,6 +21585,11 @@
       <c r="J458" t="b">
         <v>0</v>
       </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19442,6 +21632,7 @@
       <c r="J459" t="b">
         <v>0</v>
       </c>
+      <c r="K459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19484,6 +21675,11 @@
       <c r="J460" t="b">
         <v>0</v>
       </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19526,6 +21722,11 @@
       <c r="J461" t="b">
         <v>0</v>
       </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19568,6 +21769,11 @@
       <c r="J462" t="b">
         <v>0</v>
       </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19610,6 +21816,11 @@
       <c r="J463" t="b">
         <v>0</v>
       </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19648,6 +21859,11 @@
       <c r="J464" t="b">
         <v>0</v>
       </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19690,6 +21906,11 @@
       <c r="J465" t="b">
         <v>1</v>
       </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -19732,6 +21953,11 @@
       <c r="J466" t="b">
         <v>0</v>
       </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -19774,6 +22000,11 @@
       <c r="J467" t="b">
         <v>0</v>
       </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -19816,6 +22047,11 @@
       <c r="J468" t="b">
         <v>0</v>
       </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -19858,6 +22094,11 @@
       <c r="J469" t="b">
         <v>1</v>
       </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -19900,6 +22141,11 @@
       <c r="J470" t="b">
         <v>0</v>
       </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -19942,6 +22188,11 @@
       <c r="J471" t="b">
         <v>0</v>
       </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -19984,6 +22235,11 @@
       <c r="J472" t="b">
         <v>0</v>
       </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20026,6 +22282,11 @@
       <c r="J473" t="b">
         <v>0</v>
       </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20068,6 +22329,7 @@
       <c r="J474" t="b">
         <v>0</v>
       </c>
+      <c r="K474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20110,6 +22372,7 @@
       <c r="J475" t="b">
         <v>0</v>
       </c>
+      <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20152,6 +22415,11 @@
       <c r="J476" t="b">
         <v>0</v>
       </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20194,6 +22462,11 @@
       <c r="J477" t="b">
         <v>0</v>
       </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20236,6 +22509,11 @@
       <c r="J478" t="b">
         <v>0</v>
       </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20278,6 +22556,11 @@
       <c r="J479" t="b">
         <v>0</v>
       </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20320,6 +22603,11 @@
       <c r="J480" t="b">
         <v>0</v>
       </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20354,6 +22642,7 @@
       <c r="J481" t="b">
         <v>0</v>
       </c>
+      <c r="K481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20394,6 +22683,7 @@
       <c r="J482" t="b">
         <v>0</v>
       </c>
+      <c r="K482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20436,6 +22726,7 @@
       <c r="J483" t="b">
         <v>0</v>
       </c>
+      <c r="K483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20475,6 +22766,7 @@
       <c r="J484" t="b">
         <v>0</v>
       </c>
+      <c r="K484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20514,6 +22806,7 @@
       <c r="J485" t="b">
         <v>0</v>
       </c>
+      <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20554,6 +22847,7 @@
       <c r="J486" t="b">
         <v>0</v>
       </c>
+      <c r="K486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20593,6 +22887,7 @@
       <c r="J487" t="b">
         <v>0</v>
       </c>
+      <c r="K487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20633,6 +22928,7 @@
       <c r="J488" t="b">
         <v>0</v>
       </c>
+      <c r="K488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20667,6 +22963,11 @@
       <c r="J489" t="b">
         <v>1</v>
       </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -20706,6 +23007,7 @@
       <c r="J490" t="b">
         <v>0</v>
       </c>
+      <c r="K490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -20740,6 +23042,7 @@
       <c r="J491" t="b">
         <v>0</v>
       </c>
+      <c r="K491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -20773,6 +23076,11 @@
       </c>
       <c r="J492" t="b">
         <v>0</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
       </c>
     </row>
   </sheetData>
